--- a/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_3_4.xlsx
+++ b/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_3_4.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8860377927866336</v>
+        <v>0.9720713924244446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8670649154558608</v>
+        <v>0.9771709017512078</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9942692814152021</v>
+        <v>0.9930971536222714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9257945194250434</v>
+        <v>0.9850971833511245</v>
       </c>
       <c r="F2" t="n">
-        <v>13.74387611996971</v>
+        <v>3.368198388813411</v>
       </c>
       <c r="G2" t="n">
-        <v>9.443777981284784</v>
+        <v>2.668521311884286</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3909547602464259</v>
+        <v>0.7236873987402453</v>
       </c>
       <c r="I2" t="n">
-        <v>5.183625853435516</v>
+        <v>1.753306086197026</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9049584177952341</v>
+        <v>0.9758461888043121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8751077313752494</v>
+        <v>0.9734139189358506</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9827093877696329</v>
+        <v>0.9924099350605413</v>
       </c>
       <c r="E3" t="n">
-        <v>0.924812047411915</v>
+        <v>0.9828328310429932</v>
       </c>
       <c r="F3" t="n">
-        <v>11.46204311068322</v>
+        <v>2.912956821528961</v>
       </c>
       <c r="G3" t="n">
-        <v>8.872412128940292</v>
+        <v>3.107679644022705</v>
       </c>
       <c r="H3" t="n">
-        <v>1.179581069810195</v>
+        <v>0.7957346943180477</v>
       </c>
       <c r="I3" t="n">
-        <v>5.252256462496588</v>
+        <v>2.019705571386988</v>
       </c>
     </row>
     <row r="4">
@@ -544,710 +544,710 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9192457351378053</v>
+        <v>0.978640357211946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8763651916368106</v>
+        <v>0.9691415738109713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9666815220758491</v>
+        <v>0.9912373053875952</v>
       </c>
       <c r="E4" t="n">
-        <v>0.918122962661539</v>
+        <v>0.9800938200533248</v>
       </c>
       <c r="F4" t="n">
-        <v>9.738988385397406</v>
+        <v>2.575979279658839</v>
       </c>
       <c r="G4" t="n">
-        <v>8.783081493832233</v>
+        <v>3.607079309012464</v>
       </c>
       <c r="H4" t="n">
-        <v>2.27301643866562</v>
+        <v>0.9186719974627237</v>
       </c>
       <c r="I4" t="n">
-        <v>5.719522658729162</v>
+        <v>2.341948322639559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_3</t>
+          <t>model_3_4_24</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.929885394781363</v>
+        <v>0.9797180882405156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8726765338501268</v>
+        <v>0.8999481909089886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.947578513929127</v>
+        <v>0.963402239253654</v>
       </c>
       <c r="E5" t="n">
-        <v>0.907357655852485</v>
+        <v>0.9320255443832532</v>
       </c>
       <c r="F5" t="n">
-        <v>8.455842264631958</v>
+        <v>2.446004596739821</v>
       </c>
       <c r="G5" t="n">
-        <v>9.04512567355976</v>
+        <v>11.69517875573851</v>
       </c>
       <c r="H5" t="n">
-        <v>3.57624078295623</v>
+        <v>3.836872041610719</v>
       </c>
       <c r="I5" t="n">
-        <v>6.47153345716622</v>
+        <v>7.997147757149975</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_24</t>
+          <t>model_3_4_23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9332402484382186</v>
+        <v>0.9799389045175277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6831884666718424</v>
+        <v>0.901197123696549</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5531487859063642</v>
+        <v>0.9639002742969282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6240660805991982</v>
+        <v>0.9328912915064822</v>
       </c>
       <c r="F6" t="n">
-        <v>8.051245914772542</v>
+        <v>2.419374087988401</v>
       </c>
       <c r="G6" t="n">
-        <v>22.5064571397486</v>
+        <v>11.5491894694165</v>
       </c>
       <c r="H6" t="n">
-        <v>30.48459049014043</v>
+        <v>3.784658553836826</v>
       </c>
       <c r="I6" t="n">
-        <v>26.26087411186447</v>
+        <v>7.895293206025283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_23</t>
+          <t>model_3_4_22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9343143912113232</v>
+        <v>0.9801774831464911</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6876692433785644</v>
+        <v>0.9025717980659586</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5630948765083605</v>
+        <v>0.9644505495748282</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6310496304653698</v>
+        <v>0.9338451297102354</v>
       </c>
       <c r="F7" t="n">
-        <v>7.921703976530945</v>
+        <v>2.390601434303252</v>
       </c>
       <c r="G7" t="n">
-        <v>22.18814041736412</v>
+        <v>11.38850209527265</v>
       </c>
       <c r="H7" t="n">
-        <v>29.80605927120956</v>
+        <v>3.72696825295755</v>
       </c>
       <c r="I7" t="n">
-        <v>25.77303804700027</v>
+        <v>7.783074800116498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_22</t>
+          <t>model_3_4_21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9354653537144532</v>
+        <v>0.9804341832031551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6925848145315956</v>
+        <v>0.9040832087615939</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5739275521463987</v>
+        <v>0.9650580974466592</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6386746985667133</v>
+        <v>0.93489488614779</v>
       </c>
       <c r="F8" t="n">
-        <v>7.782897555976697</v>
+        <v>2.359643331042102</v>
       </c>
       <c r="G8" t="n">
-        <v>21.83893566995208</v>
+        <v>11.21183144414318</v>
       </c>
       <c r="H8" t="n">
-        <v>29.06704442617232</v>
+        <v>3.663273551537848</v>
       </c>
       <c r="I8" t="n">
-        <v>25.24038870845977</v>
+        <v>7.659571680246338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_21</t>
+          <t>model_3_4_3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9366920690351784</v>
+        <v>0.9806633333894496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.697968684844634</v>
+        <v>0.9645576514268105</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5856993268144209</v>
+        <v>0.9897299369577317</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6469831487140507</v>
+        <v>0.9770505903750362</v>
       </c>
       <c r="F9" t="n">
-        <v>7.634955323066529</v>
+        <v>2.332007750349977</v>
       </c>
       <c r="G9" t="n">
-        <v>21.45646270511574</v>
+        <v>4.14289962223065</v>
       </c>
       <c r="H9" t="n">
-        <v>28.26396340327581</v>
+        <v>1.07670297168094</v>
       </c>
       <c r="I9" t="n">
-        <v>24.66000169860522</v>
+        <v>2.699982192501436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_4</t>
+          <t>model_3_4_20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9376512969507371</v>
+        <v>0.9807091010007269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8654861586222513</v>
+        <v>0.9057431226053771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9263512981451609</v>
+        <v>0.9657281066048691</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8937307662120639</v>
+        <v>0.9360490183867199</v>
       </c>
       <c r="F10" t="n">
-        <v>7.519272150858641</v>
+        <v>2.3264881628035</v>
       </c>
       <c r="G10" t="n">
-        <v>9.555933693030646</v>
+        <v>11.01780207777249</v>
       </c>
       <c r="H10" t="n">
-        <v>5.024380476909154</v>
+        <v>3.593030472334836</v>
       </c>
       <c r="I10" t="n">
-        <v>7.423440201717885</v>
+        <v>7.523788819430917</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_20</t>
+          <t>model_3_4_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9379914594682102</v>
+        <v>0.9810017697011846</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7038542737678264</v>
+        <v>0.9075633435916092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5984593066430747</v>
+        <v>0.9664663756161949</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6560163439341606</v>
+        <v>0.9373159654642241</v>
       </c>
       <c r="F11" t="n">
-        <v>7.478248449974599</v>
+        <v>2.291192230391879</v>
       </c>
       <c r="G11" t="n">
-        <v>21.03834738762571</v>
+        <v>10.80503421278</v>
       </c>
       <c r="H11" t="n">
-        <v>27.39346613825673</v>
+        <v>3.515631099504994</v>
       </c>
       <c r="I11" t="n">
-        <v>24.02898760208182</v>
+        <v>7.374733370772138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_19</t>
+          <t>model_3_4_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9393574401714468</v>
+        <v>0.9813112353516218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7102767328562506</v>
+        <v>0.9095563193721921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6122514407840547</v>
+        <v>0.9672785237355177</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6658124761029796</v>
+        <v>0.9387048721553397</v>
       </c>
       <c r="F12" t="n">
-        <v>7.313510770469975</v>
+        <v>2.253870580811747</v>
       </c>
       <c r="G12" t="n">
-        <v>20.58209253261169</v>
+        <v>10.57207282785819</v>
       </c>
       <c r="H12" t="n">
-        <v>26.45255438057993</v>
+        <v>3.430486316077566</v>
       </c>
       <c r="I12" t="n">
-        <v>23.34467852436259</v>
+        <v>7.211329457802669</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_18</t>
+          <t>model_3_4_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9407803984927497</v>
+        <v>0.9816356296926051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7172673733283326</v>
+        <v>0.911734520522727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.627112970612457</v>
+        <v>0.9681705596357868</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6764064890518029</v>
+        <v>0.9402246995558815</v>
       </c>
       <c r="F13" t="n">
-        <v>7.141901573262599</v>
+        <v>2.214748526707047</v>
       </c>
       <c r="G13" t="n">
-        <v>20.0854737747291</v>
+        <v>10.31746022212021</v>
       </c>
       <c r="H13" t="n">
-        <v>25.43868749024421</v>
+        <v>3.33696617888728</v>
       </c>
       <c r="I13" t="n">
-        <v>22.60463346316686</v>
+        <v>7.032522813788843</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_17</t>
+          <t>model_3_4_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9422459766924809</v>
+        <v>0.9819721287484311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7248565904287789</v>
+        <v>0.9141104887859921</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6430717525675668</v>
+        <v>0.9691487282617324</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6878270740340867</v>
+        <v>0.9418847223387977</v>
       </c>
       <c r="F14" t="n">
-        <v>6.96515240602752</v>
+        <v>2.174166640388357</v>
       </c>
       <c r="G14" t="n">
-        <v>19.54633181988581</v>
+        <v>10.03973037586055</v>
       </c>
       <c r="H14" t="n">
-        <v>24.34996507598437</v>
+        <v>3.234415974275485</v>
       </c>
       <c r="I14" t="n">
-        <v>21.80684819020816</v>
+        <v>6.837222279863775</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_5</t>
+          <t>model_3_4_4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9431560438263248</v>
+        <v>0.982083245852147</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8559093691230789</v>
+        <v>0.9598193261305402</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9036947359563523</v>
+        <v>0.9880082372249597</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8781622375832888</v>
+        <v>0.9738362394719363</v>
       </c>
       <c r="F15" t="n">
-        <v>6.855398038731104</v>
+        <v>2.16076588459725</v>
       </c>
       <c r="G15" t="n">
-        <v>10.23627383133066</v>
+        <v>4.69676828134016</v>
       </c>
       <c r="H15" t="n">
-        <v>6.570031464209594</v>
+        <v>1.257204221866889</v>
       </c>
       <c r="I15" t="n">
-        <v>8.510980190338421</v>
+        <v>3.078148356278478</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_16</t>
+          <t>model_3_4_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9437337532853676</v>
+        <v>0.9823162948286277</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7330710739584205</v>
+        <v>0.9166959169108394</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6601416581864737</v>
+        <v>0.9702184404599492</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7000942965121866</v>
+        <v>0.9436931705868825</v>
       </c>
       <c r="F16" t="n">
-        <v>6.785726105968761</v>
+        <v>2.132660108647872</v>
       </c>
       <c r="G16" t="n">
-        <v>18.96277061066194</v>
+        <v>9.737516509315695</v>
       </c>
       <c r="H16" t="n">
-        <v>23.18544080910236</v>
+        <v>3.122268434584329</v>
       </c>
       <c r="I16" t="n">
-        <v>20.94992103207068</v>
+        <v>6.624459592470807</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_15</t>
+          <t>model_3_4_14</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9452163419396706</v>
+        <v>0.9826621667312869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7419291956057625</v>
+        <v>0.919501958361235</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6783238780773084</v>
+        <v>0.9713853342872206</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7132200370288022</v>
+        <v>0.9456585077795236</v>
       </c>
       <c r="F17" t="n">
-        <v>6.60692547284778</v>
+        <v>2.090947854210508</v>
       </c>
       <c r="G17" t="n">
-        <v>18.33348501269074</v>
+        <v>9.409514880394259</v>
       </c>
       <c r="H17" t="n">
-        <v>21.94503346524397</v>
+        <v>2.999932471670734</v>
       </c>
       <c r="I17" t="n">
-        <v>20.03302207312266</v>
+        <v>6.393239029105211</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_14</t>
+          <t>model_3_4_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9466566445692848</v>
+        <v>0.9830013616219287</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7514418030661389</v>
+        <v>0.9225385626454219</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6975994396229914</v>
+        <v>0.9726540558304115</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7271998383837428</v>
+        <v>0.9477877469797841</v>
       </c>
       <c r="F18" t="n">
-        <v>6.433224546894126</v>
+        <v>2.050040849410401</v>
       </c>
       <c r="G18" t="n">
-        <v>17.65770440001825</v>
+        <v>9.054562478866952</v>
       </c>
       <c r="H18" t="n">
-        <v>20.63003737335798</v>
+        <v>2.866920994509671</v>
       </c>
       <c r="I18" t="n">
-        <v>19.05646267120405</v>
+        <v>6.142735507741176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_6</t>
+          <t>model_3_4_5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9468873351748206</v>
+        <v>0.9830346873090676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8447979207753595</v>
+        <v>0.9550460234341603</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8801416896413375</v>
+        <v>0.9861659246058715</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8613552965698807</v>
+        <v>0.9705529408543965</v>
       </c>
       <c r="F19" t="n">
-        <v>6.405403191182852</v>
+        <v>2.046021761619381</v>
       </c>
       <c r="G19" t="n">
-        <v>11.02563693743779</v>
+        <v>5.254725491675365</v>
       </c>
       <c r="H19" t="n">
-        <v>8.176841402423355</v>
+        <v>1.450350404472924</v>
       </c>
       <c r="I19" t="n">
-        <v>9.685029509596788</v>
+        <v>3.464426171041054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_13</t>
+          <t>model_3_4_12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9480063623899706</v>
+        <v>0.983322474627601</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7616051486643385</v>
+        <v>0.925812585762406</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7179262964678332</v>
+        <v>0.9740274360614071</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7420137165441618</v>
+        <v>0.9500858385135009</v>
       </c>
       <c r="F20" t="n">
-        <v>6.270448175867104</v>
+        <v>2.011314525321155</v>
       </c>
       <c r="G20" t="n">
-        <v>16.93569500945292</v>
+        <v>8.671857898595752</v>
       </c>
       <c r="H20" t="n">
-        <v>19.24332097352995</v>
+        <v>2.722937206885895</v>
       </c>
       <c r="I20" t="n">
-        <v>18.02163881147006</v>
+        <v>5.872366625962877</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_12</t>
+          <t>model_3_4_11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9492030747135964</v>
+        <v>0.9836105290676123</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7723980504870952</v>
+        <v>0.9293290826323126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7392393415632492</v>
+        <v>0.9755069346597023</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7576196931244513</v>
+        <v>0.9525559296968136</v>
       </c>
       <c r="F21" t="n">
-        <v>6.126124313339931</v>
+        <v>1.976575074093178</v>
       </c>
       <c r="G21" t="n">
-        <v>16.16896161519931</v>
+        <v>8.260810263763451</v>
       </c>
       <c r="H21" t="n">
-        <v>17.78932592699192</v>
+        <v>2.567828077484646</v>
       </c>
       <c r="I21" t="n">
-        <v>16.93148289518322</v>
+        <v>5.581762104200168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_7</t>
+          <t>model_3_4_6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9492349264844501</v>
+        <v>0.983625146344597</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8327963893682461</v>
+        <v>0.950328004176317</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8561173814276044</v>
+        <v>0.9842749618149134</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8438526254250409</v>
+        <v>0.9672782200260093</v>
       </c>
       <c r="F22" t="n">
-        <v>6.122282980291737</v>
+        <v>1.974812226136804</v>
       </c>
       <c r="G22" t="n">
-        <v>11.87823200993397</v>
+        <v>5.806220553032042</v>
       </c>
       <c r="H22" t="n">
-        <v>9.815801249919941</v>
+        <v>1.648597021653674</v>
       </c>
       <c r="I22" t="n">
-        <v>10.90767907601157</v>
+        <v>3.849694814834025</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_11</t>
+          <t>model_3_4_10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9501668618890232</v>
+        <v>0.9838458229315418</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7837748767028503</v>
+        <v>0.9330881587101711</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7614438364971855</v>
+        <v>0.977091016134393</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7739495226993188</v>
+        <v>0.9551975358349913</v>
       </c>
       <c r="F23" t="n">
-        <v>6.009891293034522</v>
+        <v>1.948198564049089</v>
       </c>
       <c r="G23" t="n">
-        <v>15.36074592645404</v>
+        <v>7.821407247602242</v>
       </c>
       <c r="H23" t="n">
-        <v>16.27451537316045</v>
+        <v>2.401754585611758</v>
       </c>
       <c r="I23" t="n">
-        <v>15.79076220837391</v>
+        <v>5.270978966453391</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_8</t>
+          <t>model_3_4_7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9505106992594964</v>
+        <v>0.9839403744263666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8203857033501135</v>
+        <v>0.9457319688983772</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8319702821394495</v>
+        <v>0.9823887961653315</v>
       </c>
       <c r="E24" t="n">
-        <v>0.826073249123628</v>
+        <v>0.9640697979649191</v>
       </c>
       <c r="F24" t="n">
-        <v>5.968424403784541</v>
+        <v>1.936795625622344</v>
       </c>
       <c r="G24" t="n">
-        <v>12.75989364013937</v>
+        <v>6.343456757269913</v>
       </c>
       <c r="H24" t="n">
-        <v>11.46313801461298</v>
+        <v>1.846340711407972</v>
       </c>
       <c r="I24" t="n">
-        <v>12.14965788862593</v>
+        <v>4.227163454443347</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_10</t>
+          <t>model_3_4_9</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9507965494852364</v>
+        <v>0.9840027750903659</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7956564125003193</v>
+        <v>0.9370847467115999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7844138211039727</v>
+        <v>0.9787744545343254</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7909031474146919</v>
+        <v>0.9580056788476478</v>
       </c>
       <c r="F25" t="n">
-        <v>5.933950781453932</v>
+        <v>1.929270086965429</v>
       </c>
       <c r="G25" t="n">
-        <v>14.51667540487005</v>
+        <v>7.354241171202444</v>
       </c>
       <c r="H25" t="n">
-        <v>14.70748242747842</v>
+        <v>2.225264614674956</v>
       </c>
       <c r="I25" t="n">
-        <v>14.60646629514577</v>
+        <v>4.940602880441912</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_9</t>
+          <t>model_3_4_8</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9509645204651036</v>
+        <v>0.9840483552532521</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8079203934016087</v>
+        <v>0.941306541726081</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8079886257303948</v>
+        <v>0.9805463641037134</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8083404893900079</v>
+        <v>0.9609693796977168</v>
       </c>
       <c r="F26" t="n">
-        <v>5.913693431271854</v>
+        <v>1.923773105750755</v>
       </c>
       <c r="G26" t="n">
-        <v>13.64543578294738</v>
+        <v>6.860750370656017</v>
       </c>
       <c r="H26" t="n">
-        <v>13.09918811775109</v>
+        <v>2.039499416247447</v>
       </c>
       <c r="I26" t="n">
-        <v>13.38838029963576</v>
+        <v>4.591925522293946</v>
       </c>
     </row>
   </sheetData>
